--- a/LOGS/647518ef-7506-40c4-894d-bba9dbd2b223/main_page_service_output/notes_standard_cropped_df.xlsx
+++ b/LOGS/647518ef-7506-40c4-894d-bba9dbd2b223/main_page_service_output/notes_standard_cropped_df.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2946" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2947" uniqueCount="131">
   <si>
     <t>line_item_0</t>
   </si>
@@ -1180,7 +1180,13 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1402,7 +1408,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1419,7 +1425,7 @@
         <v>115</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1436,7 +1442,7 @@
         <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1453,7 +1459,7 @@
         <v>117</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1470,7 +1476,7 @@
         <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1487,7 +1493,7 @@
         <v>119</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1504,7 +1510,7 @@
         <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1521,7 +1527,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1725,7 +1731,7 @@
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1742,7 +1748,7 @@
         <v>115</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1759,7 +1765,7 @@
         <v>116</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1776,7 +1782,7 @@
         <v>117</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1793,7 +1799,7 @@
         <v>118</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1810,7 +1816,7 @@
         <v>119</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C37">
         <v>117695</v>
@@ -1827,7 +1833,7 @@
         <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1844,7 +1850,7 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -2048,7 +2054,7 @@
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C51">
         <v>2023</v>
@@ -2065,7 +2071,7 @@
         <v>115</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C52">
         <v>131960</v>
@@ -2082,7 +2088,7 @@
         <v>116</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C53">
         <v>11318</v>
@@ -2099,7 +2105,7 @@
         <v>117</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C54">
         <v>4265</v>
@@ -2116,7 +2122,7 @@
         <v>118</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C55">
         <v>-29848</v>
@@ -2133,7 +2139,7 @@
         <v>119</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C56">
         <v>117695</v>
@@ -2150,7 +2156,7 @@
         <v>80</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C57">
         <v>25637</v>
@@ -2167,7 +2173,7 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C58">
         <v>92058</v>
@@ -2371,7 +2377,7 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C70">
         <v>2022</v>
@@ -2388,7 +2394,7 @@
         <v>115</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C71">
         <v>122630</v>
@@ -2405,7 +2411,7 @@
         <v>116</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C72">
         <v>33545</v>
@@ -2422,7 +2428,7 @@
         <v>117</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C73">
         <v>4165</v>
@@ -2439,7 +2445,7 @@
         <v>118</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C74">
         <v>-28380</v>
@@ -2456,7 +2462,7 @@
         <v>119</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C75">
         <v>131960</v>
@@ -2473,7 +2479,7 @@
         <v>80</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C76">
         <v>25250</v>
@@ -2490,7 +2496,7 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C77">
         <v>106710</v>
@@ -2694,7 +2700,7 @@
         <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2711,7 +2717,7 @@
         <v>115</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2728,7 +2734,7 @@
         <v>116</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2745,7 +2751,7 @@
         <v>117</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2762,7 +2768,7 @@
         <v>118</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2779,7 +2785,7 @@
         <v>119</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2796,7 +2802,7 @@
         <v>80</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2813,7 +2819,7 @@
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -10543,7 +10549,7 @@
         <v>83</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E9">
         <v>3497</v>
@@ -10563,7 +10569,7 @@
         <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E10">
         <v>2279</v>
@@ -10583,7 +10589,7 @@
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E11">
         <v>5776</v>
@@ -10786,7 +10792,7 @@
         <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E21">
         <v>4088</v>
@@ -10806,7 +10812,7 @@
         <v>84</v>
       </c>
       <c r="D22" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -10826,7 +10832,7 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="E23">
         <v>0</v>
